--- a/tut05/output/0501ME11.xlsx
+++ b/tut05/output/0501ME11.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.775510204081632</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>7.272727272727272</v>
+        <v>7.27</v>
       </c>
       <c r="D6" t="n">
-        <v>6.829787234042553</v>
+        <v>6.83</v>
       </c>
       <c r="E6" t="n">
-        <v>6.408163265306122</v>
+        <v>6.41</v>
       </c>
       <c r="F6" t="n">
-        <v>7.782608695652174</v>
+        <v>7.78</v>
       </c>
       <c r="G6" t="n">
-        <v>7.521739130434782</v>
+        <v>7.52</v>
       </c>
       <c r="H6" t="n">
         <v>8.300000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.775510204081632</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.064516129032258</v>
+        <v>8.06</v>
       </c>
       <c r="D8" t="n">
         <v>7.65</v>
       </c>
       <c r="E8" t="n">
-        <v>7.328042328042328</v>
+        <v>7.33</v>
       </c>
       <c r="F8" t="n">
-        <v>7.417021276595745</v>
+        <v>7.42</v>
       </c>
       <c r="G8" t="n">
-        <v>7.434163701067615</v>
+        <v>7.43</v>
       </c>
       <c r="H8" t="n">
-        <v>7.542056074766355</v>
+        <v>7.54</v>
       </c>
       <c r="I8" t="n">
-        <v>7.509695290858725</v>
+        <v>7.51</v>
       </c>
     </row>
   </sheetData>
